--- a/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0318C4E0-DE7E-4E9B-9F96-CB68335D66DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E9D89C-78FA-4D16-8A11-CAF1D13159B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF1D4F71-2ED8-4D97-A851-F7ECDE3EF479}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{716A8470-A194-4173-B7BA-C29821481438}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,799 +77,793 @@
     <t>9,16%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
     <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2772A0-218A-419D-B527-2EF225F322B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DE2DCC-0792-41D0-9A7F-901CAA1B5B29}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1563,10 +1557,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -1575,13 +1569,13 @@
         <v>95719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
@@ -1590,13 +1584,13 @@
         <v>192541</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1605,13 @@
         <v>1595572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1465</v>
@@ -1626,13 +1620,13 @@
         <v>1491954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3017</v>
@@ -1641,13 +1635,13 @@
         <v>3087527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,7 +1697,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1715,13 +1709,13 @@
         <v>35423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1730,13 +1724,13 @@
         <v>44578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -1745,13 +1739,13 @@
         <v>80001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1760,13 @@
         <v>515985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -1781,13 +1775,13 @@
         <v>431834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>901</v>
@@ -1796,13 +1790,13 @@
         <v>947819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1864,13 @@
         <v>226720</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -1885,13 +1879,13 @@
         <v>217084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -1900,13 +1894,13 @@
         <v>443804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,16 +1912,16 @@
         <v>2986</v>
       </c>
       <c r="D14" s="7">
-        <v>3048805</v>
+        <v>3048806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3090</v>
@@ -1936,28 +1930,28 @@
         <v>3162114</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6076</v>
       </c>
       <c r="N14" s="7">
-        <v>6210918</v>
+        <v>6210919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1963,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1999,7 +1993,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2013,7 +2007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C654658E-E9CA-42A4-84D5-2E8073ECA33B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC52299A-3501-4616-BA73-BEB1FB9DCB9D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2049,7 +2043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2156,13 +2150,13 @@
         <v>109996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
@@ -2171,13 +2165,13 @@
         <v>103622</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>201</v>
@@ -2186,13 +2180,13 @@
         <v>213618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2201,13 @@
         <v>861841</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1144</v>
@@ -2222,13 +2216,13 @@
         <v>1227843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1946</v>
@@ -2237,13 +2231,13 @@
         <v>2089684</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2305,13 @@
         <v>165762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>149</v>
@@ -2326,13 +2320,13 @@
         <v>155521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -2341,13 +2335,13 @@
         <v>321283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2356,13 @@
         <v>1794260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1481</v>
@@ -2377,13 +2371,13 @@
         <v>1596328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3180</v>
@@ -2392,13 +2386,13 @@
         <v>3390588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2448,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2466,13 +2460,13 @@
         <v>47228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2481,13 +2475,13 @@
         <v>35815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2496,13 +2490,13 @@
         <v>83044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2511,13 @@
         <v>433104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>377</v>
@@ -2532,13 +2526,13 @@
         <v>421839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>777</v>
@@ -2547,13 +2541,13 @@
         <v>854942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2615,13 @@
         <v>322987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -2636,13 +2630,13 @@
         <v>294958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>574</v>
@@ -2651,13 +2645,13 @@
         <v>617945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2666,13 @@
         <v>3089204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2687,13 +2681,13 @@
         <v>3246010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>5903</v>
@@ -2702,13 +2696,13 @@
         <v>6335215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2758,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD665F27-7826-4829-8129-08B683FAC6B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3ACD22-D8A9-4ABB-805A-EFC6F1D0DB37}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,7 +2794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2907,13 +2901,13 @@
         <v>62750</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2922,13 +2916,13 @@
         <v>71191</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>126</v>
@@ -2937,13 +2931,13 @@
         <v>133941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2952,13 @@
         <v>691597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -2973,13 +2967,13 @@
         <v>923469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1528</v>
@@ -2988,13 +2982,13 @@
         <v>1615066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3056,13 @@
         <v>159030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>167</v>
@@ -3077,13 +3071,13 @@
         <v>175483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -3092,13 +3086,13 @@
         <v>334512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3107,13 @@
         <v>1917355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>1741</v>
@@ -3128,13 +3122,13 @@
         <v>1812817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>3544</v>
@@ -3143,13 +3137,13 @@
         <v>3730173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3199,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3217,13 +3211,13 @@
         <v>39353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3232,13 +3226,13 @@
         <v>46225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -3247,13 +3241,13 @@
         <v>85578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3262,13 @@
         <v>507533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3283,13 +3277,13 @@
         <v>502915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>946</v>
@@ -3298,13 +3292,13 @@
         <v>1010448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3366,13 @@
         <v>261133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -3387,13 +3381,13 @@
         <v>292899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>523</v>
@@ -3405,7 +3399,7 @@
         <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>208</v>
@@ -3426,10 +3420,10 @@
         <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>3052</v>
@@ -3438,13 +3432,13 @@
         <v>3239201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6018</v>
@@ -3453,13 +3447,13 @@
         <v>6355686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3509,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8CBFB2-D2F7-4104-8221-9A3D2D5E477E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097BA330-AB4F-4BE2-8089-35257D3B82EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3658,13 +3652,13 @@
         <v>44777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
@@ -3673,13 +3667,13 @@
         <v>66794</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>175</v>
@@ -3688,13 +3682,13 @@
         <v>111571</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3703,13 @@
         <v>495786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>1305</v>
@@ -3724,13 +3718,13 @@
         <v>764774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>1938</v>
@@ -3739,13 +3733,13 @@
         <v>1260561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3807,13 @@
         <v>132330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -3828,13 +3822,13 @@
         <v>167719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3843,13 +3837,13 @@
         <v>300049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3858,13 @@
         <v>2029692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>2697</v>
@@ -3879,13 +3873,13 @@
         <v>2080236</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4559</v>
@@ -3894,13 +3888,13 @@
         <v>4109928</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3950,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3962,13 @@
         <v>56554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -3983,13 +3977,13 @@
         <v>50143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -3998,13 +3992,13 @@
         <v>106697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4013,13 @@
         <v>616485</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>925</v>
@@ -4034,13 +4028,13 @@
         <v>663743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -4049,13 +4043,13 @@
         <v>1280229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4117,13 @@
         <v>233661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
@@ -4138,13 +4132,13 @@
         <v>284656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>655</v>
@@ -4153,13 +4147,13 @@
         <v>518317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4168,13 @@
         <v>3141963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>4927</v>
@@ -4189,13 +4183,13 @@
         <v>3508754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>8054</v>
@@ -4204,13 +4198,13 @@
         <v>6650717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4260,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E9D89C-78FA-4D16-8A11-CAF1D13159B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCB5512-F93F-4E23-AA22-CCB70A20FEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{716A8470-A194-4173-B7BA-C29821481438}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06F5D655-3476-4104-A8E4-F499D875B79C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,118 +77,118 @@
     <t>9,16%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,664 +197,646 @@
     <t>6,42%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
   </si>
   <si>
     <t>92,77%</t>
@@ -1275,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DE2DCC-0792-41D0-9A7F-901CAA1B5B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC78645-B810-4E99-B390-4EB9F6D2110F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1897,10 +1879,10 @@
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,16 +1894,16 @@
         <v>2986</v>
       </c>
       <c r="D14" s="7">
-        <v>3048806</v>
+        <v>3048805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3090</v>
@@ -1933,10 +1915,10 @@
         <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6076</v>
@@ -1945,13 +1927,13 @@
         <v>6210919</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1945,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2007,7 +1989,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC52299A-3501-4616-BA73-BEB1FB9DCB9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82818691-C67E-4F57-9066-0122F5FFFB0E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2043,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2150,13 +2132,13 @@
         <v>109996</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
@@ -2168,10 +2150,10 @@
         <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>201</v>
@@ -2180,13 +2162,13 @@
         <v>213618</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2183,13 @@
         <v>861841</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1144</v>
@@ -2219,10 +2201,10 @@
         <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>1946</v>
@@ -2231,13 +2213,13 @@
         <v>2089684</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,13 +2287,13 @@
         <v>165762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>149</v>
@@ -2320,13 +2302,13 @@
         <v>155521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -2335,13 +2317,13 @@
         <v>321283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2338,13 @@
         <v>1794260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>1481</v>
@@ -2371,13 +2353,13 @@
         <v>1596328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>3180</v>
@@ -2386,13 +2368,13 @@
         <v>3390588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2442,13 @@
         <v>47228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2475,13 +2457,13 @@
         <v>35815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2490,13 +2472,13 @@
         <v>83044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2493,13 @@
         <v>433104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>377</v>
@@ -2526,13 +2508,13 @@
         <v>421839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>777</v>
@@ -2541,13 +2523,13 @@
         <v>854942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2597,13 @@
         <v>322987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -2630,13 +2612,13 @@
         <v>294958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>574</v>
@@ -2645,13 +2627,13 @@
         <v>617945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2648,13 @@
         <v>3089204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2681,13 +2663,13 @@
         <v>3246010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>5903</v>
@@ -2696,13 +2678,13 @@
         <v>6335215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2740,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3ACD22-D8A9-4ABB-805A-EFC6F1D0DB37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105C8E2-09A0-4498-B0FB-AA6FD0491DF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2901,13 +2883,13 @@
         <v>62750</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2916,13 +2898,13 @@
         <v>71191</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>126</v>
@@ -2931,13 +2913,13 @@
         <v>133941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2934,13 @@
         <v>691597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -2967,13 +2949,13 @@
         <v>923469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>1528</v>
@@ -2982,13 +2964,13 @@
         <v>1615066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3038,13 @@
         <v>159030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>167</v>
@@ -3071,13 +3053,13 @@
         <v>175483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -3086,13 +3068,13 @@
         <v>334512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3089,13 @@
         <v>1917355</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>1741</v>
@@ -3122,13 +3104,13 @@
         <v>1812817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>3544</v>
@@ -3137,13 +3119,13 @@
         <v>3730173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3193,13 @@
         <v>39353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3226,13 +3208,13 @@
         <v>46225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -3241,13 +3223,13 @@
         <v>85578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3244,13 @@
         <v>507533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3277,13 +3259,13 @@
         <v>502915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>946</v>
@@ -3292,13 +3274,13 @@
         <v>1010448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3348,13 @@
         <v>261133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -3381,13 +3363,13 @@
         <v>292899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>523</v>
@@ -3396,13 +3378,13 @@
         <v>554032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3399,13 @@
         <v>3116485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>3052</v>
@@ -3432,13 +3414,13 @@
         <v>3239201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>6018</v>
@@ -3447,13 +3429,13 @@
         <v>6355686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097BA330-AB4F-4BE2-8089-35257D3B82EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C79F53-ABFD-4819-A81D-B4680DC2A6F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3545,7 +3527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3652,13 +3634,13 @@
         <v>44777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
@@ -3667,13 +3649,13 @@
         <v>66794</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>175</v>
@@ -3682,13 +3664,13 @@
         <v>111571</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3685,13 @@
         <v>495786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>1305</v>
@@ -3718,13 +3700,13 @@
         <v>764774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>1938</v>
@@ -3733,13 +3715,13 @@
         <v>1260561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3789,13 @@
         <v>132330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -3822,13 +3804,13 @@
         <v>167719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3837,13 +3819,13 @@
         <v>300049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3840,13 @@
         <v>2029692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>2697</v>
@@ -3873,13 +3855,13 @@
         <v>2080236</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>4559</v>
@@ -3888,13 +3870,13 @@
         <v>4109928</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3944,13 @@
         <v>56554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -3977,13 +3959,13 @@
         <v>50143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -3992,13 +3974,13 @@
         <v>106697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +3995,13 @@
         <v>616485</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>925</v>
@@ -4028,13 +4010,13 @@
         <v>663743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -4043,13 +4025,13 @@
         <v>1280229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,10 +4102,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
@@ -4132,13 +4114,13 @@
         <v>284656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>655</v>
@@ -4147,13 +4129,13 @@
         <v>518317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4150,13 @@
         <v>3141963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>4927</v>
@@ -4183,13 +4165,13 @@
         <v>3508754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>8054</v>
@@ -4198,13 +4180,13 @@
         <v>6650717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4242,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCB5512-F93F-4E23-AA22-CCB70A20FEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49D5003-C893-46FC-A160-8923E742820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06F5D655-3476-4104-A8E4-F499D875B79C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35C05CFE-9FF4-42C3-A5A3-0BF94BDD3486}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,22 +71,22 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>7,18%</t>
@@ -95,757 +95,781 @@
     <t>7,3%</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>93,37%</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC78645-B810-4E99-B390-4EB9F6D2110F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAAEC7-B683-4A2A-A3DA-12C861D93503}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1539,10 +1563,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -1551,13 +1575,13 @@
         <v>95719</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
@@ -1566,13 +1590,13 @@
         <v>192541</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1611,13 @@
         <v>1595572</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>1465</v>
@@ -1602,13 +1626,13 @@
         <v>1491954</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3017</v>
@@ -1617,13 +1641,13 @@
         <v>3087527</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,7 +1703,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1691,13 +1715,13 @@
         <v>35423</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1706,13 +1730,13 @@
         <v>44578</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -1721,13 +1745,13 @@
         <v>80001</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,13 +1766,13 @@
         <v>515985</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -1757,13 +1781,13 @@
         <v>431834</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>901</v>
@@ -1772,13 +1796,13 @@
         <v>947819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1870,13 @@
         <v>226720</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -1861,13 +1885,13 @@
         <v>217084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -1876,13 +1900,13 @@
         <v>443804</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1921,13 @@
         <v>3048805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3090</v>
@@ -1912,28 +1936,28 @@
         <v>3162114</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6076</v>
       </c>
       <c r="N14" s="7">
-        <v>6210919</v>
+        <v>6210918</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1999,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82818691-C67E-4F57-9066-0122F5FFFB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1F349-C7A3-473C-BB42-16C72D42202C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,7 +2171,7 @@
         <v>103622</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>88</v>
@@ -2198,7 +2222,7 @@
         <v>1227843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>96</v>
@@ -2290,10 +2314,10 @@
         <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>149</v>
@@ -2302,13 +2326,13 @@
         <v>155521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -2317,13 +2341,13 @@
         <v>321283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2362,13 @@
         <v>1794260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>1481</v>
@@ -2353,13 +2377,13 @@
         <v>1596328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>3180</v>
@@ -2368,13 +2392,13 @@
         <v>3390588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2454,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2442,13 +2466,13 @@
         <v>47228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2457,13 +2481,13 @@
         <v>35815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2472,13 +2496,13 @@
         <v>83044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2517,13 @@
         <v>433104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>377</v>
@@ -2508,13 +2532,13 @@
         <v>421839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>777</v>
@@ -2523,13 +2547,13 @@
         <v>854942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2621,13 @@
         <v>322987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -2612,13 +2636,13 @@
         <v>294958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>574</v>
@@ -2627,13 +2651,13 @@
         <v>617945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2672,13 @@
         <v>3089204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2663,13 +2687,13 @@
         <v>3246010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>5903</v>
@@ -2678,13 +2702,13 @@
         <v>6335215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105C8E2-09A0-4498-B0FB-AA6FD0491DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE21E47-902E-48D2-A301-ACE3DFF9E3FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2883,13 +2907,13 @@
         <v>62750</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2898,13 +2922,13 @@
         <v>71191</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>126</v>
@@ -2913,13 +2937,13 @@
         <v>133941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2958,13 @@
         <v>691597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -2949,13 +2973,13 @@
         <v>923469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>1528</v>
@@ -2964,13 +2988,13 @@
         <v>1615066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3062,13 @@
         <v>159030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>167</v>
@@ -3053,13 +3077,13 @@
         <v>175483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -3068,13 +3092,13 @@
         <v>334512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3113,13 @@
         <v>1917355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>1741</v>
@@ -3104,13 +3128,13 @@
         <v>1812817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>3544</v>
@@ -3119,13 +3143,13 @@
         <v>3730173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3205,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3193,13 +3217,13 @@
         <v>39353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3208,13 +3232,13 @@
         <v>46225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -3223,13 +3247,13 @@
         <v>85578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3268,13 @@
         <v>507533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3259,13 +3283,13 @@
         <v>502915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>946</v>
@@ -3274,13 +3298,13 @@
         <v>1010448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3372,13 @@
         <v>261133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -3363,10 +3387,10 @@
         <v>292899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>90</v>
@@ -3378,13 +3402,13 @@
         <v>554032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3423,13 @@
         <v>3116485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>3052</v>
@@ -3414,13 +3438,13 @@
         <v>3239201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>6018</v>
@@ -3429,13 +3453,13 @@
         <v>6355686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C79F53-ABFD-4819-A81D-B4680DC2A6F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E030FA-17F8-4114-A994-4E4CAE652A67}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3527,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3634,13 +3658,13 @@
         <v>44777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
@@ -3649,13 +3673,13 @@
         <v>66794</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>175</v>
@@ -3664,13 +3688,13 @@
         <v>111571</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3709,13 @@
         <v>495786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>1305</v>
@@ -3700,13 +3724,13 @@
         <v>764774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>1938</v>
@@ -3715,13 +3739,13 @@
         <v>1260561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3813,13 @@
         <v>132330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -3804,13 +3828,13 @@
         <v>167719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3819,13 +3843,13 @@
         <v>300049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3864,13 @@
         <v>2029692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>2697</v>
@@ -3855,13 +3879,13 @@
         <v>2080236</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>4559</v>
@@ -3870,13 +3894,13 @@
         <v>4109928</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,7 +3956,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3944,13 +3968,13 @@
         <v>56554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -3959,13 +3983,13 @@
         <v>50143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -3974,13 +3998,13 @@
         <v>106697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4019,13 @@
         <v>616485</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>925</v>
@@ -4010,13 +4034,13 @@
         <v>663743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -4025,13 +4049,13 @@
         <v>1280229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4123,13 @@
         <v>233661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
@@ -4114,13 +4138,13 @@
         <v>284656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>655</v>
@@ -4129,13 +4153,13 @@
         <v>518317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4174,13 @@
         <v>3141963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>4927</v>
@@ -4165,13 +4189,13 @@
         <v>3508754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>8054</v>
@@ -4180,13 +4204,13 @@
         <v>6650717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49D5003-C893-46FC-A160-8923E742820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{169DAEE6-B790-4F84-91BB-1D38929A65F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35C05CFE-9FF4-42C3-A5A3-0BF94BDD3486}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E766E7E4-A98B-457F-A9D6-589CEC72A36F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -692,184 +692,178 @@
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAAEC7-B683-4A2A-A3DA-12C861D93503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6874AF-DC64-44FB-9F28-A9DD055C2117}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1483,7 +1477,7 @@
         <v>2158</v>
       </c>
       <c r="N5" s="7">
-        <v>2175574</v>
+        <v>2175573</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1534,7 +1528,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1638,7 +1632,7 @@
         <v>3017</v>
       </c>
       <c r="N8" s="7">
-        <v>3087527</v>
+        <v>3087526</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1689,7 +1683,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1933,7 +1927,7 @@
         <v>3090</v>
       </c>
       <c r="I14" s="7">
-        <v>3162114</v>
+        <v>3162113</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>58</v>
@@ -1984,7 +1978,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1F349-C7A3-473C-BB42-16C72D42202C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A643114E-6DA6-4F62-8CA8-EAD73B08C9A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2684,7 +2678,7 @@
         <v>3002</v>
       </c>
       <c r="I14" s="7">
-        <v>3246010</v>
+        <v>3246011</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>147</v>
@@ -2735,7 +2729,7 @@
         <v>3282</v>
       </c>
       <c r="I15" s="7">
-        <v>3540968</v>
+        <v>3540969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2783,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE21E47-902E-48D2-A301-ACE3DFF9E3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E90694-889B-40D3-A2B4-7062318DF536}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3295,7 +3289,7 @@
         <v>946</v>
       </c>
       <c r="N11" s="7">
-        <v>1010448</v>
+        <v>1010449</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>199</v>
@@ -3346,7 +3340,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3534,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E030FA-17F8-4114-A994-4E4CAE652A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E075DC-138E-42B5-BE9D-F60F022B0A21}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,28 +3649,28 @@
         <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>44777</v>
+        <v>44093</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
       </c>
       <c r="I4" s="7">
-        <v>66794</v>
+        <v>60520</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>192</v>
@@ -3685,16 +3679,16 @@
         <v>175</v>
       </c>
       <c r="N4" s="7">
-        <v>111571</v>
+        <v>104613</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,46 +3700,46 @@
         <v>633</v>
       </c>
       <c r="D5" s="7">
-        <v>495786</v>
+        <v>469849</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>1305</v>
       </c>
       <c r="I5" s="7">
-        <v>764774</v>
+        <v>691212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>1938</v>
       </c>
       <c r="N5" s="7">
-        <v>1260561</v>
+        <v>1161060</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3751,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3766,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3787,7 +3781,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1372132</v>
+        <v>1265673</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3810,46 +3804,46 @@
         <v>130</v>
       </c>
       <c r="D7" s="7">
-        <v>132330</v>
+        <v>128432</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
       </c>
       <c r="I7" s="7">
-        <v>167719</v>
+        <v>152292</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
       </c>
       <c r="N7" s="7">
-        <v>300049</v>
+        <v>280723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,46 +3855,46 @@
         <v>1862</v>
       </c>
       <c r="D8" s="7">
-        <v>2029692</v>
+        <v>2161895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>2697</v>
       </c>
       <c r="I8" s="7">
-        <v>2080236</v>
+        <v>2084072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>4559</v>
       </c>
       <c r="N8" s="7">
-        <v>4109928</v>
+        <v>4245968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3906,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3927,7 +3921,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2247955</v>
+        <v>2236364</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3942,7 +3936,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409977</v>
+        <v>4526691</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3965,46 +3959,46 @@
         <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>56554</v>
+        <v>56107</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>50143</v>
+        <v>47542</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
       </c>
       <c r="N10" s="7">
-        <v>106697</v>
+        <v>103648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,40 +4010,40 @@
         <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>616485</v>
+        <v>590516</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>925</v>
       </c>
       <c r="I11" s="7">
-        <v>663743</v>
+        <v>612921</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
       </c>
       <c r="N11" s="7">
-        <v>1280229</v>
+        <v>1203438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>261</v>
@@ -4067,7 +4061,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4082,7 +4076,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4097,7 +4091,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4120,46 +4114,46 @@
         <v>236</v>
       </c>
       <c r="D13" s="7">
-        <v>233661</v>
+        <v>228631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
       </c>
       <c r="I13" s="7">
-        <v>284656</v>
+        <v>260353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>655</v>
       </c>
       <c r="N13" s="7">
-        <v>518317</v>
+        <v>488985</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,10 +4165,10 @@
         <v>3127</v>
       </c>
       <c r="D14" s="7">
-        <v>3141963</v>
+        <v>3222261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>270</v>
@@ -4186,31 +4180,31 @@
         <v>4927</v>
       </c>
       <c r="I14" s="7">
-        <v>3508754</v>
+        <v>3388205</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>8054</v>
       </c>
       <c r="N14" s="7">
-        <v>6650717</v>
+        <v>6610465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4216,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4237,7 +4231,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793410</v>
+        <v>3648558</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4252,7 +4246,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169034</v>
+        <v>7099450</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
